--- a/xlsx/乌尔都语维基百科_intext.xlsx
+++ b/xlsx/乌尔都语维基百科_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_乌尔都语维基百科</t>
+    <t>政策_政策_维基百科_乌尔都语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E9%83%BD%E8%AF%AD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英語維基百科</t>
+    <t>英语维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>宿霧語維基百科</t>
+    <t>宿雾语维基百科</t>
   </si>
   <si>
     <t>https://ceb.wikipedia.org/wiki/</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瑞典語維基百科</t>
+    <t>瑞典语维基百科</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>德語維基百科</t>
+    <t>德语维基百科</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>荷蘭語維基百科</t>
+    <t>荷兰语维基百科</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>俄語維基百科</t>
+    <t>俄语维基百科</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>意大利語維基百科</t>
+    <t>意大利语维基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語維基百科</t>
+    <t>瓦瑞瓦瑞语维基百科</t>
   </si>
   <si>
     <t>https://war.wikipedia.org/wiki/</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波蘭語維基百科</t>
+    <t>波兰语维基百科</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>日語維基百科</t>
+    <t>日语维基百科</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯語維基百科</t>
+    <t>波斯语维基百科</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>加泰羅尼亞語維基百科</t>
+    <t>加泰罗尼亚语维基百科</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>挪威語維基百科</t>
+    <t>挪威语维基百科</t>
   </si>
   <si>
     <t>https://no.wikipedia.org/wiki/</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E-%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞-克羅埃西亞語維基百科</t>
+    <t>塞尔维亚-克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://sh.wikipedia.org/wiki/</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>匈牙利語維基百科</t>
+    <t>匈牙利语维基百科</t>
   </si>
   <si>
     <t>https://hu.wikipedia.org/wiki/</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印尼語維基百科</t>
+    <t>印尼语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>韓語維基百科</t>
+    <t>韩语维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>捷克語維基百科</t>
+    <t>捷克语维基百科</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞語維基百科</t>
+    <t>塞尔维亚语维基百科</t>
   </si>
   <si>
     <t>https://sr.wikipedia.org/wiki/</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬來語維基百科</t>
+    <t>马来语维基百科</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>土耳其語維基百科</t>
+    <t>土耳其语维基百科</t>
   </si>
   <si>
     <t>https://tr.wikipedia.org/wiki/</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>巴斯克語維基百科</t>
+    <t>巴斯克语维基百科</t>
   </si>
   <si>
     <t>https://eu.wikipedia.org/wiki/</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>世界語維基百科</t>
+    <t>世界语维基百科</t>
   </si>
   <si>
     <t>https://eo.wikipedia.org/wiki/</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>保加利亞語維基百科</t>
+    <t>保加利亚语维基百科</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>亞美尼亞語維基百科</t>
+    <t>亚美尼亚语维基百科</t>
   </si>
   <si>
     <t>https://hy.wikipedia.org/wiki/</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>丹麥語維基百科</t>
+    <t>丹麦语维基百科</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>閩南語維基百科</t>
+    <t>闽南语维基百科</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛伐克語維基百科</t>
+    <t>斯洛伐克语维基百科</t>
   </si>
   <si>
     <t>https://sk.wikipedia.org/wiki/</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希伯來語維基百科</t>
+    <t>希伯来语维基百科</t>
   </si>
   <si>
     <t>https://he.wikipedia.org/wiki/</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>立陶宛語維基百科</t>
+    <t>立陶宛语维基百科</t>
   </si>
   <si>
     <t>https://lt.wikipedia.org/wiki/</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>克羅埃西亞語維基百科</t>
+    <t>克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://hr.wikipedia.org/wiki/</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>愛沙尼亞語維基百科</t>
+    <t>爱沙尼亚语维基百科</t>
   </si>
   <si>
     <t>https://et.wikipedia.org/wiki/</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛文尼亞語維基百科</t>
+    <t>斯洛文尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sl.wikipedia.org/wiki/</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>白俄羅斯語維基百科</t>
+    <t>白俄罗斯语维基百科</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希臘語維基百科</t>
+    <t>希腊语维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>新挪威語維基百科</t>
+    <t>新挪威语维基百科</t>
   </si>
   <si>
     <t>https://nn.wikipedia.org/wiki/</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿塞拜疆語維基百科</t>
+    <t>阿塞拜疆语维基百科</t>
   </si>
   <si>
     <t>https://az.wikipedia.org/wiki/</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏茲別克語維基百科</t>
+    <t>乌兹别克语维基百科</t>
   </si>
   <si>
     <t>https://uz.wikipedia.org/wiki/</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>拉丁語維基百科</t>
+    <t>拉丁语维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印地語維基百科</t>
+    <t>印地语维基百科</t>
   </si>
   <si>
     <t>https://hi.wikipedia.org/wiki/</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰語維基百科</t>
+    <t>泰语维基百科</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰米爾語維基百科</t>
+    <t>泰米尔语维基百科</t>
   </si>
   <si>
     <t>https://ta.wikipedia.org/wiki/</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬其頓語維基百科</t>
+    <t>马其顿语维基百科</t>
   </si>
   <si>
     <t>https://mk.wikipedia.org/wiki/</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿勒曼尼語維基百科</t>
+    <t>阿勒曼尼语维基百科</t>
   </si>
   <si>
     <t>https://als.wikipedia.org/wiki/</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>孟加拉語維基百科</t>
+    <t>孟加拉语维基百科</t>
   </si>
   <si>
     <t>https://bn.wikipedia.org/wiki/</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯尼亞語維基百科</t>
+    <t>波斯尼亚语维基百科</t>
   </si>
   <si>
     <t>https://bs.wikipedia.org/wiki/</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伊多語維基百科</t>
+    <t>伊多语维基百科</t>
   </si>
   <si>
     <t>https://io.wikipedia.org/wiki/</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>冰島語維基百科</t>
+    <t>冰岛语维基百科</t>
   </si>
   <si>
     <t>https://is.wikipedia.org/wiki/</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>盧森堡語維基百科</t>
+    <t>卢森堡语维基百科</t>
   </si>
   <si>
     <t>https://lb.wikipedia.org/wiki/</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語維基百科</t>
+    <t>阿尔巴尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sq.wikipedia.org/wiki/</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯瓦希里語維基百科</t>
+    <t>斯瓦希里语维基百科</t>
   </si>
   <si>
     <t>https://sw.wikipedia.org/wiki/</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔吉克語維基百科</t>
+    <t>塔吉克语维基百科</t>
   </si>
   <si>
     <t>https://tg.wikipedia.org/wiki/</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔塔爾語維基百科</t>
+    <t>塔塔尔语维基百科</t>
   </si>
   <si>
     <t>https://tt.wikipedia.org/wiki/</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>粵文維基百科</t>
+    <t>粤文维基百科</t>
   </si>
   <si>
     <t>https://zh-yue.wikipedia.org/wiki/</t>
